--- a/files/SveAktivnosti.xlsx
+++ b/files/SveAktivnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1518">
   <si>
     <t>ID</t>
   </si>
@@ -4217,9 +4217,6 @@
     <t>Tjelovježba u sportskom klubu, općenito</t>
   </si>
   <si>
-    <t>kikbol</t>
-  </si>
-  <si>
     <t>Polaganje ili motanje tepiha</t>
   </si>
   <si>
@@ -4373,9 +4370,6 @@
     <t>Skijanje cross country, 6 – 8 km/h, umerena brzina i intenzitet, uopšteno</t>
   </si>
   <si>
-    <t>Skijanje, nizbrdo, umjerenog intenziteta, uopćeno</t>
-  </si>
-  <si>
     <t>Skijanje, nizbrdo, jakog intenziteta, takmičenje</t>
   </si>
   <si>
@@ -4563,6 +4557,18 @@
   </si>
   <si>
     <t>Odbojka, natjecanje, u dvorani</t>
+  </si>
+  <si>
+    <t>Kikbol</t>
+  </si>
+  <si>
+    <t>Košarka, uopšteno, rekreativno igranje</t>
+  </si>
+  <si>
+    <t>Skijanje, nizbrdo, umerenog intenziteta, uopšteno</t>
+  </si>
+  <si>
+    <t>Skijanje, uopšteno</t>
   </si>
 </sst>
 </file>
@@ -11016,8 +11022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M413" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N443" sqref="N443"/>
+    <sheetView tabSelected="1" topLeftCell="M321" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O336" sqref="O336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11496,7 +11502,7 @@
         <v>Bakery, general</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>1297</v>
@@ -11581,7 +11587,7 @@
         <v>1176</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>1176</v>
+        <v>1515</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="3"/>
@@ -11593,7 +11599,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="2"/>
-        <v>'Basketball, non game, general': 'Košarka, općenito, rekreativno igranje',</v>
+        <v>'Basketball, non game, general': 'Košarka, uopšteno, rekreativno igranje',</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -13669,7 +13675,7 @@
         <v>Carrying heavy loads, such as bricks</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="O67" s="12" t="s">
         <v>942</v>
@@ -13710,10 +13716,10 @@
         <v>Carrying infant or 7-kg load (e.g. suitcase), on level ground or downstairs</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" si="3"/>
@@ -13792,10 +13798,10 @@
         <v>Carrying moderate loads up stairs, moving boxes (7 - 18 kg)</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" ref="S70:S129" si="9">"'" &amp; M70 &amp; "': '" &amp; M70 &amp; "',"</f>
@@ -13833,7 +13839,7 @@
         <v>Cello, playing</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>944</v>
@@ -13915,7 +13921,7 @@
         <v>Child care: sitting/kneeling-dressing, bathing, grooming, feeding, occasional lifting of child, light effort</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="O73" s="19" t="s">
         <v>1292</v>
@@ -14120,10 +14126,10 @@
         <v>Cleaning, light (dusting, straightening up, vacuuming, changing linens, carrying out rubbish)</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" si="9"/>
@@ -14164,7 +14170,7 @@
         <v>948</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" si="9"/>
@@ -14981,10 +14987,10 @@
         <v>Dancing, ballroom, slow (e.g. waltz, foxtrot, slow dancing)</v>
       </c>
       <c r="N99" s="13" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O99" s="19" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="S99" t="str">
         <f t="shared" si="9"/>
@@ -15063,10 +15069,10 @@
         <v>Dancing, ballroom, fast (e.g. disco, folk, square)</v>
       </c>
       <c r="N101" s="13" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="9"/>
@@ -15760,10 +15766,10 @@
         <v>Farming, milking by hand</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="O118" s="13" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="S118" t="str">
         <f t="shared" si="9"/>
@@ -18384,10 +18390,10 @@
         <v>Hunting, deer, elk, large game</v>
       </c>
       <c r="N182" s="13" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="O182" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" si="13"/>
@@ -18425,10 +18431,10 @@
         <v>Hunting, pheasants or grouse</v>
       </c>
       <c r="N183" s="13" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="O183" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" si="13"/>
@@ -18794,10 +18800,10 @@
         <v>Juggling</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="O192" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" si="19"/>
@@ -18879,7 +18885,7 @@
         <v>617</v>
       </c>
       <c r="O194" t="s">
-        <v>1400</v>
+        <v>1514</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" si="19"/>
@@ -18891,7 +18897,7 @@
       </c>
       <c r="U194" t="str">
         <f t="shared" si="16"/>
-        <v>'Kickball': 'kikbol',</v>
+        <v>'Kickball': 'Kikbol',</v>
       </c>
     </row>
     <row r="195" spans="2:21">
@@ -18999,10 +19005,10 @@
         <v>Laying or removing carpet</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="S197" t="str">
         <f t="shared" si="19"/>
@@ -19125,7 +19131,7 @@
         <v>1024</v>
       </c>
       <c r="O200" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="S200" t="str">
         <f t="shared" si="19"/>
@@ -19166,7 +19172,7 @@
         <v>1025</v>
       </c>
       <c r="O201" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="S201" t="str">
         <f t="shared" si="19"/>
@@ -19822,7 +19828,7 @@
         <v>1038</v>
       </c>
       <c r="O217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="S217" t="str">
         <f t="shared" si="19"/>
@@ -19901,10 +19907,10 @@
         <v>Move household items upstairs, carrying boxes or furniture</v>
       </c>
       <c r="N219" s="12" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="O219" s="12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="S219" t="str">
         <f t="shared" si="19"/>
@@ -19945,7 +19951,7 @@
         <v>1039</v>
       </c>
       <c r="O220" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="S220" t="str">
         <f t="shared" si="19"/>
@@ -20147,10 +20153,10 @@
         <v>Mowing lawn, general</v>
       </c>
       <c r="N225" s="17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O225" s="17" t="s">
         <v>1408</v>
-      </c>
-      <c r="O225" s="17" t="s">
-        <v>1409</v>
       </c>
       <c r="S225" t="str">
         <f t="shared" si="19"/>
@@ -20229,10 +20235,10 @@
         <v>Occupation, light (e.g. bartending, store clerk, assembling, filing, photocopying, putting up Christmas tree), standing</v>
       </c>
       <c r="N227" s="13" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="O227" s="13" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="S227" t="str">
         <f t="shared" si="19"/>
@@ -20311,10 +20317,10 @@
         <v>Occupation, light/moderate (assemble/repair heavy parts, welding, stocking, car repair, packing boxes for moving, etc.), patient care (as in nursing), standing</v>
       </c>
       <c r="N229" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O229" s="18" t="s">
         <v>1411</v>
-      </c>
-      <c r="O229" s="18" t="s">
-        <v>1412</v>
       </c>
       <c r="S229" t="str">
         <f t="shared" si="19"/>
@@ -20352,10 +20358,10 @@
         <v>Occupation, moderate demanding occupation (e.g. assembling at fast rate, lifting 20 kg, hitching/twisting ropes), standing</v>
       </c>
       <c r="N230" s="13" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O230" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="S230" t="str">
         <f t="shared" si="19"/>
@@ -20434,7 +20440,7 @@
         <v>Operating heavy duty equipment/automated, not driving</v>
       </c>
       <c r="N232" s="13" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="O232" t="s">
         <v>1347</v>
@@ -20557,10 +20563,10 @@
         <v>Packing/unpacking boxes, occasional lifting or household items light-moderate effort (standing)</v>
       </c>
       <c r="N235" s="18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="O235" t="s">
         <v>1414</v>
-      </c>
-      <c r="O235" t="s">
-        <v>1415</v>
       </c>
       <c r="S235" t="str">
         <f t="shared" si="19"/>
@@ -20847,7 +20853,7 @@
         <v>1205</v>
       </c>
       <c r="O242" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="S242" t="str">
         <f t="shared" si="19"/>
@@ -20929,7 +20935,7 @@
         <v>1203</v>
       </c>
       <c r="O244" s="13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="S244" t="str">
         <f t="shared" si="24"/>
@@ -21008,10 +21014,10 @@
         <v>Police, riding in a squad car (sitting)</v>
       </c>
       <c r="N246" s="17" t="s">
+        <v>1417</v>
+      </c>
+      <c r="O246" t="s">
         <v>1418</v>
-      </c>
-      <c r="O246" t="s">
-        <v>1419</v>
       </c>
       <c r="S246" t="str">
         <f t="shared" si="24"/>
@@ -21049,10 +21055,10 @@
         <v>Police, driving a squad car(sitting)</v>
       </c>
       <c r="N247" s="17" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O247" s="12" t="s">
         <v>1421</v>
-      </c>
-      <c r="O247" s="12" t="s">
-        <v>1422</v>
       </c>
       <c r="S247" t="str">
         <f t="shared" si="24"/>
@@ -21254,7 +21260,7 @@
         <v>Pushing or pulling buggy with child</v>
       </c>
       <c r="N252" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="O252" t="s">
         <v>1270</v>
@@ -21295,10 +21301,10 @@
         <v>Pushing plane in and out of hangar</v>
       </c>
       <c r="N253" s="17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="O253" s="12" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="S253" t="str">
         <f t="shared" si="24"/>
@@ -21336,7 +21342,7 @@
         <v>Putting away clothes, gathering clothes to pack, putting away laundry (implied walking)</v>
       </c>
       <c r="N254" s="17" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="O254" t="s">
         <v>1334</v>
@@ -21418,10 +21424,10 @@
         <v>Putting away household items, moderate effort (implied walking)</v>
       </c>
       <c r="N256" s="17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O256" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="S256" t="str">
         <f t="shared" si="24"/>
@@ -21459,10 +21465,10 @@
         <v>Putting on and removing of sailboat tarpaulin</v>
       </c>
       <c r="N257" s="17" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O257" s="12" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="S257" t="str">
         <f t="shared" si="24"/>
@@ -21544,7 +21550,7 @@
         <v>1054</v>
       </c>
       <c r="O259" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="S259" t="str">
         <f t="shared" si="24"/>
@@ -21708,7 +21714,7 @@
         <v>899</v>
       </c>
       <c r="O263" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="S263" t="str">
         <f t="shared" si="24"/>
@@ -21873,7 +21879,7 @@
         <v>1059</v>
       </c>
       <c r="O267" s="13" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Q267" s="19"/>
       <c r="S267" s="17" t="str">
@@ -21953,10 +21959,10 @@
         <v>Rock climbing, ascending rock</v>
       </c>
       <c r="N269" s="18" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O269" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="S269" t="str">
         <f t="shared" si="24"/>
@@ -21994,10 +22000,10 @@
         <v>Rollerskiing, 16 km/h, no grade</v>
       </c>
       <c r="N270" s="18" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="O270" s="13" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="S270" t="str">
         <f t="shared" si="24"/>
@@ -22035,10 +22041,10 @@
         <v>Rollerskiing, 18 km/h, no grade</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="O271" s="13" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="S271" t="str">
         <f t="shared" si="24"/>
@@ -22076,10 +22082,10 @@
         <v>Rollerskiing, 19 km/h, no grade</v>
       </c>
       <c r="N272" s="18" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="O272" s="13" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="S272" t="str">
         <f t="shared" si="24"/>
@@ -22202,7 +22208,7 @@
         <v>1062</v>
       </c>
       <c r="O275" s="11" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="S275" t="str">
         <f t="shared" si="24"/>
@@ -22284,7 +22290,7 @@
         <v>1064</v>
       </c>
       <c r="O277" s="11" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="S277" t="str">
         <f t="shared" si="24"/>
@@ -22325,7 +22331,7 @@
         <v>1065</v>
       </c>
       <c r="O278" s="11" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="S278" t="str">
         <f t="shared" si="24"/>
@@ -22366,7 +22372,7 @@
         <v>1066</v>
       </c>
       <c r="O279" s="11" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="S279" t="str">
         <f t="shared" si="24"/>
@@ -22407,7 +22413,7 @@
         <v>1067</v>
       </c>
       <c r="O280" s="11" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="S280" t="str">
         <f t="shared" si="24"/>
@@ -22448,7 +22454,7 @@
         <v>1068</v>
       </c>
       <c r="O281" s="11" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="S281" t="str">
         <f t="shared" si="24"/>
@@ -22612,7 +22618,7 @@
         <v>892</v>
       </c>
       <c r="O285" s="11" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="S285" t="str">
         <f t="shared" si="24"/>
@@ -22650,10 +22656,10 @@
         <v>Running, training, pushing wheelchair, marathon wheeling</v>
       </c>
       <c r="N286" s="15" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O286" s="15" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="S286" t="str">
         <f t="shared" si="24"/>
@@ -22773,10 +22779,10 @@
         <v>Running 10,8 km/h (5,5 min/km)</v>
       </c>
       <c r="N289" s="15" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O289" s="15" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="S289" t="str">
         <f t="shared" si="24"/>
@@ -23186,7 +23192,7 @@
         <v>1079</v>
       </c>
       <c r="O299" s="11" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="S299" t="str">
         <f t="shared" si="24"/>
@@ -23309,7 +23315,7 @@
         <v>1082</v>
       </c>
       <c r="O302" s="13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="S302" t="str">
         <f t="shared" si="24"/>
@@ -23473,7 +23479,7 @@
         <v>1086</v>
       </c>
       <c r="O306" s="12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="S306" t="str">
         <f t="shared" si="29"/>
@@ -23716,7 +23722,7 @@
         <v>Showering, toweling off, standing</v>
       </c>
       <c r="N312" s="13" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="O312" t="s">
         <v>1236</v>
@@ -24003,10 +24009,10 @@
         <v>Sitting quietly (riding in a car, listening to a lecturer or music, watching television or a film)</v>
       </c>
       <c r="N319" s="18" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="O319" s="13" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="S319" t="str">
         <f t="shared" si="29"/>
@@ -24044,7 +24050,7 @@
         <v>Sitting, knitting, sewing, light wrapping (presents)</v>
       </c>
       <c r="N320" s="13" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="O320" t="s">
         <v>1330</v>
@@ -24126,7 +24132,7 @@
         <v>Skating, figure</v>
       </c>
       <c r="N322" s="13" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="O322" t="s">
         <v>1237</v>
@@ -24249,10 +24255,10 @@
         <v>Skating, ice, rapidly, more than 9 km/h</v>
       </c>
       <c r="N325" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="O325" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="S325" t="str">
         <f t="shared" si="29"/>
@@ -24334,7 +24340,7 @@
         <v>1099</v>
       </c>
       <c r="O327" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="S327" t="str">
         <f t="shared" si="29"/>
@@ -24416,7 +24422,7 @@
         <v>1100</v>
       </c>
       <c r="O329" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="S329" t="str">
         <f t="shared" si="29"/>
@@ -24498,7 +24504,7 @@
         <v>1102</v>
       </c>
       <c r="O331" s="13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="S331" t="str">
         <f t="shared" si="29"/>
@@ -24580,7 +24586,7 @@
         <v>1104</v>
       </c>
       <c r="O333" s="13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="S333" t="str">
         <f t="shared" si="29"/>
@@ -24662,7 +24668,7 @@
         <v>1106</v>
       </c>
       <c r="O335" s="13" t="s">
-        <v>1452</v>
+        <v>1516</v>
       </c>
       <c r="S335" t="str">
         <f t="shared" si="29"/>
@@ -24674,7 +24680,7 @@
       </c>
       <c r="U335" t="str">
         <f t="shared" si="32"/>
-        <v>'Skiing, downhill, moderate effort, general': 'Skijanje, nizbrdo, umjerenog intenziteta, uopćeno',</v>
+        <v>'Skiing, downhill, moderate effort, general': 'Skijanje, nizbrdo, umerenog intenziteta, uopšteno',</v>
       </c>
     </row>
     <row r="336" spans="2:21">
@@ -24703,7 +24709,7 @@
         <v>1107</v>
       </c>
       <c r="O336" s="13" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="S336" t="str">
         <f t="shared" si="29"/>
@@ -24744,7 +24750,7 @@
         <v>1108</v>
       </c>
       <c r="O337" s="13" t="s">
-        <v>1108</v>
+        <v>1517</v>
       </c>
       <c r="S337" t="str">
         <f t="shared" si="29"/>
@@ -24756,7 +24762,7 @@
       </c>
       <c r="U337" t="str">
         <f t="shared" si="32"/>
-        <v>'Skiing, general': 'Skijanje, općenito',</v>
+        <v>'Skiing, general': 'Skijanje, uopšteno',</v>
       </c>
     </row>
     <row r="338" spans="2:21">
@@ -24867,7 +24873,7 @@
         <v>1111</v>
       </c>
       <c r="O340" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="S340" t="str">
         <f t="shared" si="29"/>
@@ -24987,10 +24993,10 @@
         <v>Sledding, tobogganing, bobsledding, luge</v>
       </c>
       <c r="N343" s="15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="O343" s="15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="S343" t="str">
         <f t="shared" si="29"/>
@@ -25151,10 +25157,10 @@
         <v>Soccer, casual, general</v>
       </c>
       <c r="N347" s="13" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="O347" s="13" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="S347" t="str">
         <f t="shared" si="29"/>
@@ -25277,7 +25283,7 @@
         <v>1118</v>
       </c>
       <c r="O350" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="S350" t="str">
         <f t="shared" si="29"/>
@@ -25315,7 +25321,7 @@
         <v>Softball, pitching</v>
       </c>
       <c r="N351" s="13" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="O351" t="s">
         <v>1240</v>
@@ -25356,10 +25362,10 @@
         <v>Spreading dirt with a shovel</v>
       </c>
       <c r="N352" s="12" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="O352" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="S352" t="str">
         <f t="shared" si="29"/>
@@ -25441,7 +25447,7 @@
         <v>1119</v>
       </c>
       <c r="O354" s="12" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="S354" t="str">
         <f t="shared" si="29"/>
@@ -25520,7 +25526,7 @@
         <v>Steel mill, forging</v>
       </c>
       <c r="N356" s="15" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="O356" s="17" t="s">
         <v>1315</v>
@@ -25562,7 +25568,7 @@
         <v>Steel mill, hand rolling</v>
       </c>
       <c r="N357" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="O357" s="17" t="s">
         <v>1318</v>
@@ -25604,7 +25610,7 @@
         <v>Steel mill, working in general</v>
       </c>
       <c r="N358" s="15" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="O358" t="s">
         <v>1317</v>
@@ -25645,7 +25651,7 @@
         <v>Steel mill, removing slag</v>
       </c>
       <c r="N359" s="15" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="O359" s="17" t="s">
         <v>1316</v>
@@ -25687,7 +25693,7 @@
         <v>Stretching, hatha yoga</v>
       </c>
       <c r="N360" s="13" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="O360" t="s">
         <v>1242</v>
@@ -25731,7 +25737,7 @@
         <v>1024</v>
       </c>
       <c r="O361" s="13" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="S361" t="str">
         <f t="shared" ref="S361:S418" si="34">"'" &amp; M361 &amp; "': '" &amp; M361 &amp; "',"</f>
@@ -26384,7 +26390,7 @@
         <v>Tailoring, cutting</v>
       </c>
       <c r="N377" s="13" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="O377" t="s">
         <v>1281</v>
@@ -26507,10 +26513,10 @@
         <v>Tailoring, pressing</v>
       </c>
       <c r="N380" s="13" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="O380" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="S380" t="str">
         <f t="shared" si="34"/>
@@ -26548,10 +26554,10 @@
         <v>Talking and eating or eating only, standing</v>
       </c>
       <c r="N381" s="13" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="O381" s="13" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="S381" t="str">
         <f t="shared" si="34"/>
@@ -26712,10 +26718,10 @@
         <v>Teaching aerobics exercise class, assumes participation</v>
       </c>
       <c r="N385" s="13" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="O385" s="13" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="S385" t="str">
         <f t="shared" si="34"/>
@@ -26753,7 +26759,7 @@
         <v>Tennis, doubles</v>
       </c>
       <c r="N386" s="13" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="O386" t="s">
         <v>1245</v>
@@ -26797,7 +26803,7 @@
         <v>1137</v>
       </c>
       <c r="O387" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="S387" t="str">
         <f t="shared" si="34"/>
@@ -27125,7 +27131,7 @@
         <v>1145</v>
       </c>
       <c r="O395" s="13" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="S395" t="str">
         <f t="shared" si="34"/>
@@ -27368,7 +27374,7 @@
         <v>1150</v>
       </c>
       <c r="O401" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="S401" t="str">
         <f t="shared" si="34"/>
@@ -27405,7 +27411,7 @@
         <v>Volleyball, competitive, in gymnasium</v>
       </c>
       <c r="N402" s="13" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="O402" t="s">
         <v>1295</v>
@@ -27525,10 +27531,10 @@
         <v>Walking 3 km/h on level ground, slow pace, firm surface</v>
       </c>
       <c r="N405" s="13" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="O405" s="13" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="S405" t="str">
         <f t="shared" si="34"/>
@@ -27965,10 +27971,10 @@
         <v>Walking to work or school</v>
       </c>
       <c r="N416" s="11" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="O416" s="11" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="S416" t="str">
         <f t="shared" si="34"/>
@@ -28005,10 +28011,10 @@
         <v>Walking, 5 km/h, moderately and carrying light objects less than 10 kg</v>
       </c>
       <c r="N417" s="11" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="O417" s="11" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="S417" t="str">
         <f t="shared" si="34"/>
@@ -28045,10 +28051,10 @@
         <v>Walking, using crutches</v>
       </c>
       <c r="N418" s="13" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="O418" s="13" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="S418" t="str">
         <f t="shared" si="34"/>
@@ -28088,7 +28094,7 @@
         <v>1161</v>
       </c>
       <c r="O419" s="13" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="S419" t="str">
         <f t="shared" ref="S419:S442" si="39">"'" &amp; M419 &amp; "': '" &amp; M419 &amp; "',"</f>
@@ -28245,10 +28251,10 @@
         <v>Walking upstairs, using or climbing up ladder</v>
       </c>
       <c r="N423" s="11" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="O423" s="11" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="S423" t="str">
         <f t="shared" si="39"/>
@@ -28365,7 +28371,7 @@
         <v>Washing dishes, standing or in general (not broken into stand/walk components)</v>
       </c>
       <c r="N426" s="13" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="O426" t="s">
         <v>1309</v>
@@ -28568,7 +28574,7 @@
         <v>1172</v>
       </c>
       <c r="O431" s="13" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="S431" t="str">
         <f t="shared" si="39"/>
@@ -28608,7 +28614,7 @@
         <v>1169</v>
       </c>
       <c r="O432" s="12" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="S432" t="str">
         <f t="shared" si="39"/>
@@ -28645,10 +28651,10 @@
         <v>Weeding, cultivating garden</v>
       </c>
       <c r="N433" s="12" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="O433" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="S433" t="str">
         <f t="shared" si="39"/>
@@ -28885,7 +28891,7 @@
         <v>Working in scene shop, theatre actor, backstage, employee</v>
       </c>
       <c r="N439" s="13" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="O439" t="s">
         <v>1314</v>
@@ -28925,10 +28931,10 @@
         <v>Wrestling (one match = 5 min)</v>
       </c>
       <c r="N440" s="13" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="O440" s="13" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="S440" t="str">
         <f t="shared" si="39"/>
@@ -29008,7 +29014,7 @@
         <v>1299</v>
       </c>
       <c r="O442" s="13" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="S442" t="str">
         <f t="shared" si="39"/>
